--- a/tabular/extension/equine/eiav-nuccore-genotypes.xlsx
+++ b/tabular/extension/equine/eiav-nuccore-genotypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/retrovirus/Lentivirus-GLUE-EIAV/tabular/extension/equine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E729C868-D94D-C745-A179-77668926F412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64820F3-703B-A74C-A252-F2E9644FC636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="23540" windowHeight="16900" xr2:uid="{41CE65D2-2B8D-5D4B-8927-F67474F770FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="934">
   <si>
     <t>sequenceID</t>
   </si>
@@ -2832,264 +2832,6 @@
   </si>
   <si>
     <t>X63059</t>
-  </si>
-  <si>
-    <t>AF016316</t>
-  </si>
-  <si>
-    <t>ncbi-refseqs-core</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>AF033819</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>AF322109</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>EU293537</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>GQ381130</t>
-  </si>
-  <si>
-    <t>JF502416</t>
-  </si>
-  <si>
-    <t>M25381</t>
-  </si>
-  <si>
-    <t>Global Fca</t>
-  </si>
-  <si>
-    <t>M32690</t>
-  </si>
-  <si>
-    <t>NC_001452</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>NC_001463</t>
-  </si>
-  <si>
-    <t>X05291</t>
-  </si>
-  <si>
-    <t>AB008196</t>
-  </si>
-  <si>
-    <t>ncbi-refseqs-equine</t>
-  </si>
-  <si>
-    <t>AB008197</t>
-  </si>
-  <si>
-    <t>AF028231</t>
-  </si>
-  <si>
-    <t>AF028232</t>
-  </si>
-  <si>
-    <t>AF247394</t>
-  </si>
-  <si>
-    <t>AF327877</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>AF327878</t>
-  </si>
-  <si>
-    <t>GU385353</t>
-  </si>
-  <si>
-    <t>GU385354</t>
-  </si>
-  <si>
-    <t>GU385355</t>
-  </si>
-  <si>
-    <t>GU385356</t>
-  </si>
-  <si>
-    <t>GU385357</t>
-  </si>
-  <si>
-    <t>GU385358</t>
-  </si>
-  <si>
-    <t>GU385359</t>
-  </si>
-  <si>
-    <t>GU385360</t>
-  </si>
-  <si>
-    <t>GU385361</t>
-  </si>
-  <si>
-    <t>GU385362</t>
-  </si>
-  <si>
-    <t>GU385363</t>
-  </si>
-  <si>
-    <t>GU385364</t>
-  </si>
-  <si>
-    <t>GU385365</t>
-  </si>
-  <si>
-    <t>HM141909</t>
-  </si>
-  <si>
-    <t>HM141910</t>
-  </si>
-  <si>
-    <t>HM141911</t>
-  </si>
-  <si>
-    <t>HM141912</t>
-  </si>
-  <si>
-    <t>HM141913</t>
-  </si>
-  <si>
-    <t>HM141914</t>
-  </si>
-  <si>
-    <t>HM141915</t>
-  </si>
-  <si>
-    <t>HM141916</t>
-  </si>
-  <si>
-    <t>HM141917</t>
-  </si>
-  <si>
-    <t>HM141918</t>
-  </si>
-  <si>
-    <t>HM141919</t>
-  </si>
-  <si>
-    <t>HM141920</t>
-  </si>
-  <si>
-    <t>HM141921</t>
-  </si>
-  <si>
-    <t>HM141922</t>
-  </si>
-  <si>
-    <t>HM141923</t>
-  </si>
-  <si>
-    <t>JX003263</t>
-  </si>
-  <si>
-    <t>JX480631</t>
-  </si>
-  <si>
-    <t>European1</t>
-  </si>
-  <si>
-    <t>JX480632</t>
-  </si>
-  <si>
-    <t>JX480633</t>
-  </si>
-  <si>
-    <t>JX480634</t>
-  </si>
-  <si>
-    <t>KM247554</t>
-  </si>
-  <si>
-    <t>KM247555</t>
-  </si>
-  <si>
-    <t>M16575</t>
-  </si>
-  <si>
-    <t>M87581</t>
-  </si>
-  <si>
-    <t>MH580896</t>
-  </si>
-  <si>
-    <t>European2</t>
-  </si>
-  <si>
-    <t>MH580897</t>
-  </si>
-  <si>
-    <t>MH580898</t>
-  </si>
-  <si>
-    <t>MH820163</t>
-  </si>
-  <si>
-    <t>MH820164</t>
-  </si>
-  <si>
-    <t>MH820165</t>
-  </si>
-  <si>
-    <t>MH820166</t>
-  </si>
-  <si>
-    <t>MK593462</t>
-  </si>
-  <si>
-    <t>MK593463</t>
-  </si>
-  <si>
-    <t>MN560970</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>MN560971</t>
-  </si>
-  <si>
-    <t>MT338937</t>
-  </si>
-  <si>
-    <t>MW924675</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>MW924676</t>
-  </si>
-  <si>
-    <t>MW924677</t>
-  </si>
-  <si>
-    <t>NC_001450</t>
-  </si>
-  <si>
-    <t>ON615427</t>
-  </si>
-  <si>
-    <t>U01866</t>
   </si>
   <si>
     <t>subtype</t>
@@ -3459,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCF6DD4-A858-0842-9372-3BB4D800BA6C}">
-  <dimension ref="A1:D998"/>
+  <dimension ref="A1:D925"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:D998"/>
+    <sheetView tabSelected="1" topLeftCell="A786" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C792" sqref="A1:D925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3481,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1019</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -16420,1029 +16162,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A926" t="s">
-        <v>933</v>
-      </c>
-      <c r="B926" t="s">
-        <v>934</v>
-      </c>
-      <c r="C926" t="s">
-        <v>935</v>
-      </c>
-      <c r="D926" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A927" t="s">
-        <v>936</v>
-      </c>
-      <c r="B927" t="s">
-        <v>934</v>
-      </c>
-      <c r="C927" t="s">
-        <v>937</v>
-      </c>
-      <c r="D927" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A928" t="s">
-        <v>938</v>
-      </c>
-      <c r="B928" t="s">
-        <v>934</v>
-      </c>
-      <c r="C928" t="s">
-        <v>939</v>
-      </c>
-      <c r="D928" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A929" t="s">
-        <v>940</v>
-      </c>
-      <c r="B929" t="s">
-        <v>934</v>
-      </c>
-      <c r="C929" t="s">
-        <v>941</v>
-      </c>
-      <c r="D929" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A930" t="s">
-        <v>942</v>
-      </c>
-      <c r="B930" t="s">
-        <v>934</v>
-      </c>
-      <c r="C930" t="s">
-        <v>941</v>
-      </c>
-      <c r="D930" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A931" t="s">
-        <v>943</v>
-      </c>
-      <c r="B931" t="s">
-        <v>934</v>
-      </c>
-      <c r="C931" t="s">
-        <v>939</v>
-      </c>
-      <c r="D931" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A932" t="s">
-        <v>944</v>
-      </c>
-      <c r="B932" t="s">
-        <v>934</v>
-      </c>
-      <c r="C932" t="s">
-        <v>945</v>
-      </c>
-      <c r="D932" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A933" t="s">
-        <v>946</v>
-      </c>
-      <c r="B933" t="s">
-        <v>934</v>
-      </c>
-      <c r="C933" t="s">
-        <v>937</v>
-      </c>
-      <c r="D933" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A934" t="s">
-        <v>947</v>
-      </c>
-      <c r="B934" t="s">
-        <v>934</v>
-      </c>
-      <c r="C934" t="s">
-        <v>948</v>
-      </c>
-      <c r="D934" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A935" t="s">
-        <v>949</v>
-      </c>
-      <c r="B935" t="s">
-        <v>934</v>
-      </c>
-      <c r="C935" t="s">
-        <v>939</v>
-      </c>
-      <c r="D935" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A936" t="s">
-        <v>950</v>
-      </c>
-      <c r="B936" t="s">
-        <v>934</v>
-      </c>
-      <c r="C936" t="s">
-        <v>948</v>
-      </c>
-      <c r="D936" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A937" t="s">
-        <v>951</v>
-      </c>
-      <c r="B937" t="s">
-        <v>952</v>
-      </c>
-      <c r="C937" t="s">
-        <v>935</v>
-      </c>
-      <c r="D937" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A938" t="s">
-        <v>953</v>
-      </c>
-      <c r="B938" t="s">
-        <v>952</v>
-      </c>
-      <c r="C938" t="s">
-        <v>935</v>
-      </c>
-      <c r="D938" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A939" t="s">
-        <v>954</v>
-      </c>
-      <c r="B939" t="s">
-        <v>952</v>
-      </c>
-      <c r="C939" t="s">
-        <v>935</v>
-      </c>
-      <c r="D939" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A940" t="s">
-        <v>955</v>
-      </c>
-      <c r="B940" t="s">
-        <v>952</v>
-      </c>
-      <c r="C940" t="s">
-        <v>935</v>
-      </c>
-      <c r="D940" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A941" t="s">
-        <v>956</v>
-      </c>
-      <c r="B941" t="s">
-        <v>952</v>
-      </c>
-      <c r="C941" t="s">
-        <v>935</v>
-      </c>
-      <c r="D941" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A942" t="s">
-        <v>957</v>
-      </c>
-      <c r="B942" t="s">
-        <v>952</v>
-      </c>
-      <c r="C942" t="s">
-        <v>958</v>
-      </c>
-      <c r="D942" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A943" t="s">
-        <v>959</v>
-      </c>
-      <c r="B943" t="s">
-        <v>952</v>
-      </c>
-      <c r="C943" t="s">
-        <v>958</v>
-      </c>
-      <c r="D943" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A944" t="s">
-        <v>960</v>
-      </c>
-      <c r="B944" t="s">
-        <v>952</v>
-      </c>
-      <c r="C944" t="s">
-        <v>958</v>
-      </c>
-      <c r="D944" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A945" t="s">
-        <v>961</v>
-      </c>
-      <c r="B945" t="s">
-        <v>952</v>
-      </c>
-      <c r="C945" t="s">
-        <v>958</v>
-      </c>
-      <c r="D945" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A946" t="s">
-        <v>962</v>
-      </c>
-      <c r="B946" t="s">
-        <v>952</v>
-      </c>
-      <c r="C946" t="s">
-        <v>958</v>
-      </c>
-      <c r="D946" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A947" t="s">
-        <v>963</v>
-      </c>
-      <c r="B947" t="s">
-        <v>952</v>
-      </c>
-      <c r="C947" t="s">
-        <v>958</v>
-      </c>
-      <c r="D947" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A948" t="s">
-        <v>964</v>
-      </c>
-      <c r="B948" t="s">
-        <v>952</v>
-      </c>
-      <c r="C948" t="s">
-        <v>958</v>
-      </c>
-      <c r="D948" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A949" t="s">
-        <v>965</v>
-      </c>
-      <c r="B949" t="s">
-        <v>952</v>
-      </c>
-      <c r="C949" t="s">
-        <v>958</v>
-      </c>
-      <c r="D949" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A950" t="s">
-        <v>966</v>
-      </c>
-      <c r="B950" t="s">
-        <v>952</v>
-      </c>
-      <c r="C950" t="s">
-        <v>958</v>
-      </c>
-      <c r="D950" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A951" t="s">
-        <v>967</v>
-      </c>
-      <c r="B951" t="s">
-        <v>952</v>
-      </c>
-      <c r="C951" t="s">
-        <v>958</v>
-      </c>
-      <c r="D951" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A952" t="s">
-        <v>968</v>
-      </c>
-      <c r="B952" t="s">
-        <v>952</v>
-      </c>
-      <c r="C952" t="s">
-        <v>958</v>
-      </c>
-      <c r="D952" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A953" t="s">
-        <v>969</v>
-      </c>
-      <c r="B953" t="s">
-        <v>952</v>
-      </c>
-      <c r="C953" t="s">
-        <v>958</v>
-      </c>
-      <c r="D953" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A954" t="s">
-        <v>970</v>
-      </c>
-      <c r="B954" t="s">
-        <v>952</v>
-      </c>
-      <c r="C954" t="s">
-        <v>958</v>
-      </c>
-      <c r="D954" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A955" t="s">
-        <v>971</v>
-      </c>
-      <c r="B955" t="s">
-        <v>952</v>
-      </c>
-      <c r="C955" t="s">
-        <v>958</v>
-      </c>
-      <c r="D955" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A956" t="s">
-        <v>972</v>
-      </c>
-      <c r="B956" t="s">
-        <v>952</v>
-      </c>
-      <c r="C956" t="s">
-        <v>958</v>
-      </c>
-      <c r="D956" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A957" t="s">
-        <v>973</v>
-      </c>
-      <c r="B957" t="s">
-        <v>952</v>
-      </c>
-      <c r="C957" t="s">
-        <v>958</v>
-      </c>
-      <c r="D957" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A958" t="s">
-        <v>974</v>
-      </c>
-      <c r="B958" t="s">
-        <v>952</v>
-      </c>
-      <c r="C958" t="s">
-        <v>958</v>
-      </c>
-      <c r="D958" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A959" t="s">
-        <v>975</v>
-      </c>
-      <c r="B959" t="s">
-        <v>952</v>
-      </c>
-      <c r="C959" t="s">
-        <v>958</v>
-      </c>
-      <c r="D959" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A960" t="s">
-        <v>976</v>
-      </c>
-      <c r="B960" t="s">
-        <v>952</v>
-      </c>
-      <c r="C960" t="s">
-        <v>958</v>
-      </c>
-      <c r="D960" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A961" t="s">
-        <v>977</v>
-      </c>
-      <c r="B961" t="s">
-        <v>952</v>
-      </c>
-      <c r="C961" t="s">
-        <v>958</v>
-      </c>
-      <c r="D961" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A962" t="s">
-        <v>978</v>
-      </c>
-      <c r="B962" t="s">
-        <v>952</v>
-      </c>
-      <c r="C962" t="s">
-        <v>958</v>
-      </c>
-      <c r="D962" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A963" t="s">
-        <v>979</v>
-      </c>
-      <c r="B963" t="s">
-        <v>952</v>
-      </c>
-      <c r="C963" t="s">
-        <v>958</v>
-      </c>
-      <c r="D963" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A964" t="s">
-        <v>980</v>
-      </c>
-      <c r="B964" t="s">
-        <v>952</v>
-      </c>
-      <c r="C964" t="s">
-        <v>958</v>
-      </c>
-      <c r="D964" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A965" t="s">
-        <v>981</v>
-      </c>
-      <c r="B965" t="s">
-        <v>952</v>
-      </c>
-      <c r="C965" t="s">
-        <v>958</v>
-      </c>
-      <c r="D965" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A966" t="s">
-        <v>982</v>
-      </c>
-      <c r="B966" t="s">
-        <v>952</v>
-      </c>
-      <c r="C966" t="s">
-        <v>958</v>
-      </c>
-      <c r="D966" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A967" t="s">
-        <v>983</v>
-      </c>
-      <c r="B967" t="s">
-        <v>952</v>
-      </c>
-      <c r="C967" t="s">
-        <v>958</v>
-      </c>
-      <c r="D967" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A968" t="s">
-        <v>984</v>
-      </c>
-      <c r="B968" t="s">
-        <v>952</v>
-      </c>
-      <c r="C968" t="s">
-        <v>958</v>
-      </c>
-      <c r="D968" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A969" t="s">
-        <v>985</v>
-      </c>
-      <c r="B969" t="s">
-        <v>952</v>
-      </c>
-      <c r="C969" t="s">
-        <v>958</v>
-      </c>
-      <c r="D969" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A970" t="s">
-        <v>986</v>
-      </c>
-      <c r="B970" t="s">
-        <v>952</v>
-      </c>
-      <c r="C970" t="s">
-        <v>958</v>
-      </c>
-      <c r="D970" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A971" t="s">
-        <v>987</v>
-      </c>
-      <c r="B971" t="s">
-        <v>952</v>
-      </c>
-      <c r="C971" t="s">
-        <v>958</v>
-      </c>
-      <c r="D971" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A972" t="s">
-        <v>988</v>
-      </c>
-      <c r="B972" t="s">
-        <v>952</v>
-      </c>
-      <c r="C972" t="s">
-        <v>958</v>
-      </c>
-      <c r="D972" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A973" t="s">
-        <v>989</v>
-      </c>
-      <c r="B973" t="s">
-        <v>952</v>
-      </c>
-      <c r="C973" t="s">
-        <v>990</v>
-      </c>
-      <c r="D973" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A974" t="s">
-        <v>991</v>
-      </c>
-      <c r="B974" t="s">
-        <v>952</v>
-      </c>
-      <c r="C974" t="s">
-        <v>990</v>
-      </c>
-      <c r="D974" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A975" t="s">
-        <v>992</v>
-      </c>
-      <c r="B975" t="s">
-        <v>952</v>
-      </c>
-      <c r="C975" t="s">
-        <v>990</v>
-      </c>
-      <c r="D975" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A976" t="s">
-        <v>993</v>
-      </c>
-      <c r="B976" t="s">
-        <v>952</v>
-      </c>
-      <c r="C976" t="s">
-        <v>990</v>
-      </c>
-      <c r="D976" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A977" t="s">
-        <v>994</v>
-      </c>
-      <c r="B977" t="s">
-        <v>952</v>
-      </c>
-      <c r="C977" t="s">
-        <v>990</v>
-      </c>
-      <c r="D977" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A978" t="s">
-        <v>995</v>
-      </c>
-      <c r="B978" t="s">
-        <v>952</v>
-      </c>
-      <c r="C978" t="s">
-        <v>990</v>
-      </c>
-      <c r="D978" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A979" t="s">
-        <v>996</v>
-      </c>
-      <c r="B979" t="s">
-        <v>952</v>
-      </c>
-      <c r="C979" t="s">
-        <v>935</v>
-      </c>
-      <c r="D979" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A980" t="s">
-        <v>997</v>
-      </c>
-      <c r="B980" t="s">
-        <v>952</v>
-      </c>
-      <c r="C980" t="s">
-        <v>935</v>
-      </c>
-      <c r="D980" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A981" t="s">
-        <v>998</v>
-      </c>
-      <c r="B981" t="s">
-        <v>952</v>
-      </c>
-      <c r="C981" t="s">
-        <v>999</v>
-      </c>
-      <c r="D981" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A982" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B982" t="s">
-        <v>952</v>
-      </c>
-      <c r="C982" t="s">
-        <v>990</v>
-      </c>
-      <c r="D982" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A983" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B983" t="s">
-        <v>952</v>
-      </c>
-      <c r="C983" t="s">
-        <v>693</v>
-      </c>
-      <c r="D983" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A984" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B984" t="s">
-        <v>952</v>
-      </c>
-      <c r="C984" t="s">
-        <v>935</v>
-      </c>
-      <c r="D984" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A985" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B985" t="s">
-        <v>952</v>
-      </c>
-      <c r="C985" t="s">
-        <v>935</v>
-      </c>
-      <c r="D985" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A986" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B986" t="s">
-        <v>952</v>
-      </c>
-      <c r="C986" t="s">
-        <v>935</v>
-      </c>
-      <c r="D986" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A987" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B987" t="s">
-        <v>952</v>
-      </c>
-      <c r="C987" t="s">
-        <v>935</v>
-      </c>
-      <c r="D987" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A988" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B988" t="s">
-        <v>952</v>
-      </c>
-      <c r="C988" t="s">
-        <v>999</v>
-      </c>
-      <c r="D988" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A989" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B989" t="s">
-        <v>952</v>
-      </c>
-      <c r="C989" t="s">
-        <v>990</v>
-      </c>
-      <c r="D989" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A990" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B990" t="s">
-        <v>952</v>
-      </c>
-      <c r="C990" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D990" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A991" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B991" t="s">
-        <v>952</v>
-      </c>
-      <c r="C991" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D991" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A992" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B992" t="s">
-        <v>952</v>
-      </c>
-      <c r="C992" t="s">
-        <v>999</v>
-      </c>
-      <c r="D992" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A993" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B993" t="s">
-        <v>952</v>
-      </c>
-      <c r="C993" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D993" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A994" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B994" t="s">
-        <v>952</v>
-      </c>
-      <c r="C994" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D994" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A995" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B995" t="s">
-        <v>952</v>
-      </c>
-      <c r="C995" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D995" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A996" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B996" t="s">
-        <v>952</v>
-      </c>
-      <c r="C996" t="s">
-        <v>935</v>
-      </c>
-      <c r="D996" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A997" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B997" t="s">
-        <v>952</v>
-      </c>
-      <c r="C997" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D997" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A998" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B998" t="s">
-        <v>952</v>
-      </c>
-      <c r="C998" t="s">
-        <v>935</v>
-      </c>
-      <c r="D998" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D925">
+    <sortCondition ref="B2:B925"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>